--- a/empresa/Internato.xlsx
+++ b/empresa/Internato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://expertiseinteligencia-my.sharepoint.com/personal/mairon_costa_expertise_net_br/Documents/expertise_mairon/2024/meus projetos/mmtour_pl/empresa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_72D531BFD360524987F92D11595ED87656CD3FD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B034CFA-5A9F-4151-A599-2D0254C57A75}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_72D531BFD360524987F92D11595ED87656CD3FD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B419D991-1D12-4384-AF8C-40F72AF75C32}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30300" yWindow="1695" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -323,6 +323,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -670,7 +671,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,31 +712,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>1137.78</v>
+        <v>2125.0300000000002</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -743,54 +744,54 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>1492.63</v>
+        <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>1011.06</v>
+        <v>1137.78</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -801,28 +802,28 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>2125.0300000000002</v>
+        <v>1492.63</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -830,28 +831,28 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>700</v>
+        <v>1011.06</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
